--- a/data/table_auteurs_ETBX_2020-07-27_SL_DC.xlsx
+++ b/data/table_auteurs_ETBX_2020-07-27_SL_DC.xlsx
@@ -5,13 +5,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="14955" tabRatio="500"/>
+    <workbookView windowWidth="27735" windowHeight="13530" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$647</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$D$648</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -23,7 +23,7 @@
     <author xml:space="preserve"> </author>
   </authors>
   <commentList>
-    <comment ref="A64" authorId="0">
+    <comment ref="A65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="680">
   <si>
     <t>Auteur</t>
   </si>
@@ -120,6 +120,12 @@
     <t>Aka, J.</t>
   </si>
   <si>
+    <t>Alfonsi E</t>
+  </si>
+  <si>
+    <t>Ecologie (Biogeco)</t>
+  </si>
+  <si>
     <t>Alonso Ugaglia A</t>
   </si>
   <si>
@@ -415,9 +421,6 @@
   </si>
   <si>
     <t>Bourreau,H, Del'homme, B</t>
-  </si>
-  <si>
-    <t>attention plusieurs noms</t>
   </si>
   <si>
     <t>Boutet, A.C</t>
@@ -2096,12 +2099,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2117,21 +2120,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2143,16 +2140,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2167,15 +2157,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2189,8 +2171,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2204,8 +2216,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2226,9 +2259,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2236,37 +2276,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2287,7 +2296,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,127 +2374,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2443,13 +2398,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2461,7 +2446,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2490,36 +2499,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2540,20 +2523,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2573,6 +2553,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2587,145 +2587,154 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2737,6 +2746,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3056,21 +3068,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E647"/>
+  <dimension ref="A1:D648"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="31.0083333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.85" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.9916666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1416666666667" customWidth="1"/>
-    <col min="5" max="5" width="23.4166666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3222,13 +3233,13 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="4"/>
@@ -3241,21 +3252,19 @@
         <v>14</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>6</v>
@@ -3263,13 +3272,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>6</v>
@@ -3277,13 +3286,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>6</v>
@@ -3291,15 +3300,21 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="4"/>
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3307,32 +3322,28 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
@@ -3340,44 +3351,46 @@
         <v>34</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3387,15 +3400,17 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3403,7 +3418,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3411,25 +3426,21 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
@@ -3438,50 +3449,54 @@
       <c r="B37" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3489,27 +3504,27 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3517,17 +3532,15 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3537,22 +3550,20 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
@@ -3560,84 +3571,86 @@
         <v>62</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B54" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3647,15 +3660,17 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -3663,65 +3678,63 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
-      <c r="D66" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -3731,17 +3744,17 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>14</v>
@@ -3751,15 +3764,17 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="3"/>
+        <v>84</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C70" s="3"/>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3767,37 +3782,37 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B73" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D73" s="4"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -3805,47 +3820,47 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="4"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
+      <c r="B77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D77" s="4"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
       <c r="D78" s="4"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="D79" s="4"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3853,53 +3868,53 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D81" s="4"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D83" s="4"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="3"/>
+        <v>102</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C85" s="3"/>
       <c r="D85" s="4"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -3907,27 +3922,27 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C87" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
       <c r="D87" s="4"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -3935,48 +3950,44 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
       <c r="D90" s="4"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D91" s="4"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C93" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
       <c r="D93" s="4"/>
     </row>
     <row r="94" spans="1:4">
@@ -3987,49 +3998,53 @@
         <v>20</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -4037,7 +4052,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -4045,23 +4060,20 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
-      <c r="E101" t="s">
-        <v>121</v>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -4086,9 +4098,7 @@
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
@@ -4096,18 +4106,16 @@
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
       <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4">
@@ -4115,72 +4123,76 @@
         <v>127</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D107" s="4"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D108" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
+      <c r="B109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D109" s="4"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" s="4"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B113" s="3"/>
+      <c r="B113" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C113" s="3"/>
       <c r="D113" s="4"/>
     </row>
@@ -4196,12 +4208,8 @@
       <c r="A115" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
       <c r="D115" s="4"/>
     </row>
     <row r="116" spans="1:4">
@@ -4209,22 +4217,24 @@
         <v>136</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D117" s="4"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
@@ -4242,7 +4252,9 @@
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
@@ -4258,48 +4270,48 @@
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D121" s="4"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B122" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D122" s="4"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
       <c r="D123" s="4"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B124" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
       <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
+      <c r="B125" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D125" s="4"/>
     </row>
     <row r="126" spans="1:4">
@@ -4308,75 +4320,68 @@
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B127" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
+      <c r="B129" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B130" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="4"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B131" s="3"/>
+      <c r="B131" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C131" s="3"/>
       <c r="D131" s="4"/>
-      <c r="E131" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
       <c r="D132" s="4"/>
     </row>
     <row r="133" spans="1:4">
@@ -4384,19 +4389,23 @@
         <v>155</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D133" s="4"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
       <c r="D134" s="4"/>
     </row>
     <row r="135" spans="1:4">
@@ -4411,9 +4420,7 @@
       <c r="A136" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B136" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="4"/>
     </row>
@@ -4422,11 +4429,9 @@
         <v>160</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C137" s="3"/>
       <c r="D137" s="4"/>
     </row>
     <row r="138" spans="1:4">
@@ -4434,33 +4439,33 @@
         <v>161</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D138" s="4"/>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
       <c r="D140" s="4"/>
     </row>
     <row r="141" spans="1:4">
@@ -4468,10 +4473,10 @@
         <v>164</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D141" s="4"/>
     </row>
@@ -4479,17 +4484,19 @@
       <c r="A142" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
+      <c r="B142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D142" s="4"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B143" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="4"/>
     </row>
@@ -4497,7 +4504,9 @@
       <c r="A144" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B144" s="3"/>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C144" s="3"/>
       <c r="D144" s="4"/>
     </row>
@@ -4505,9 +4514,7 @@
       <c r="A145" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="4"/>
     </row>
@@ -4518,20 +4525,18 @@
       <c r="B146" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="C146" s="3"/>
       <c r="D146" s="4"/>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="D147" s="4"/>
     </row>
@@ -4542,7 +4547,9 @@
       <c r="B148" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D148" s="4"/>
     </row>
     <row r="149" spans="1:4">
@@ -4559,7 +4566,9 @@
       <c r="A150" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B150" s="3"/>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C150" s="3"/>
       <c r="D150" s="4"/>
     </row>
@@ -4575,9 +4584,7 @@
       <c r="A152" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="4"/>
     </row>
@@ -4586,11 +4593,9 @@
         <v>177</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C153" s="3"/>
       <c r="D153" s="4"/>
     </row>
     <row r="154" spans="1:4">
@@ -4600,14 +4605,18 @@
       <c r="B154" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D154" s="4"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B155" s="3"/>
+      <c r="B155" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C155" s="3"/>
       <c r="D155" s="4"/>
     </row>
@@ -4639,9 +4648,7 @@
       <c r="A159" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B159" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="4"/>
     </row>
@@ -4649,7 +4656,9 @@
       <c r="A160" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B160" s="3"/>
+      <c r="B160" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C160" s="3"/>
       <c r="D160" s="4"/>
     </row>
@@ -4689,12 +4698,8 @@
       <c r="A165" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B165" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
       <c r="D165" s="4"/>
     </row>
     <row r="166" spans="1:4">
@@ -4704,14 +4709,18 @@
       <c r="B166" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C166" s="3"/>
+      <c r="C166" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D166" s="4"/>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B167" s="3"/>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C167" s="3"/>
       <c r="D167" s="4"/>
     </row>
@@ -4719,9 +4728,7 @@
       <c r="A168" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="4"/>
     </row>
@@ -4730,11 +4737,9 @@
         <v>193</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C169" s="3"/>
       <c r="D169" s="4"/>
     </row>
     <row r="170" spans="1:4">
@@ -4742,24 +4747,22 @@
         <v>194</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D170" s="4"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>6</v>
@@ -4770,10 +4773,10 @@
         <v>196</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>6</v>
@@ -4784,32 +4787,36 @@
         <v>197</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D173" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C174" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D174" s="4"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B175" s="3"/>
+      <c r="B175" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C175" s="3"/>
-      <c r="D175" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D175" s="4"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
@@ -4817,7 +4824,9 @@
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
@@ -4831,12 +4840,8 @@
       <c r="A178" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B178" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
       <c r="D178" s="4"/>
     </row>
     <row r="179" spans="1:4">
@@ -4847,11 +4852,9 @@
         <v>20</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D179" s="4"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
@@ -4861,7 +4864,7 @@
         <v>20</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D180" s="4" t="s">
         <v>6</v>
@@ -4872,36 +4875,36 @@
         <v>205</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D181" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D182" s="4"/>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D183" s="4" t="s">
         <v>6</v>
@@ -4912,10 +4915,10 @@
         <v>208</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>6</v>
@@ -4926,36 +4929,36 @@
         <v>209</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D185" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>6</v>
@@ -4966,36 +4969,36 @@
         <v>212</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D188" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D189" s="4"/>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>6</v>
@@ -5006,10 +5009,10 @@
         <v>215</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D191" s="4" t="s">
         <v>6</v>
@@ -5020,10 +5023,10 @@
         <v>216</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D192" s="4" t="s">
         <v>6</v>
@@ -5033,9 +5036,15 @@
       <c r="A193" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B193" s="3"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="4"/>
+      <c r="B193" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
@@ -5051,28 +5060,28 @@
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D195" s="4"/>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B196" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D196" s="4"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B197" s="3"/>
-      <c r="C197" s="3"/>
+      <c r="B197" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D197" s="4"/>
     </row>
     <row r="198" spans="1:4">
@@ -5087,9 +5096,7 @@
       <c r="A199" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B199" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="4"/>
     </row>
@@ -5097,11 +5104,11 @@
       <c r="A200" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B200" s="3"/>
+      <c r="B200" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C200" s="3"/>
-      <c r="D200" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D200" s="4"/>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
@@ -5127,35 +5134,37 @@
       <c r="A203" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B203" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D203" s="4"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D204" s="4"/>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B205" s="3"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="4"/>
+      <c r="B205" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
@@ -5163,9 +5172,7 @@
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D206" s="4"/>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
@@ -5183,18 +5190,16 @@
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B209" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
       <c r="D209" s="4"/>
     </row>
     <row r="210" spans="1:4">
@@ -5202,16 +5207,20 @@
         <v>234</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D210" s="4"/>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B211" s="3"/>
+      <c r="B211" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C211" s="3"/>
       <c r="D211" s="4"/>
     </row>
@@ -5227,9 +5236,7 @@
       <c r="A213" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B213" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B213" s="3"/>
       <c r="C213" s="3"/>
       <c r="D213" s="4"/>
     </row>
@@ -5237,7 +5244,9 @@
       <c r="A214" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B214" s="3"/>
+      <c r="B214" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C214" s="3"/>
       <c r="D214" s="4"/>
     </row>
@@ -5247,9 +5256,7 @@
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D215" s="4"/>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="3" t="s">
@@ -5267,7 +5274,9 @@
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="3" t="s">
@@ -5275,9 +5284,7 @@
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D218" s="4"/>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="3" t="s">
@@ -5285,7 +5292,9 @@
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="3" t="s">
@@ -5307,25 +5316,25 @@
       <c r="A222" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B222" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
       <c r="D222" s="4"/>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B223" s="3"/>
-      <c r="C223" s="3"/>
+        <v>247</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D223" s="4"/>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -5335,9 +5344,7 @@
       <c r="A225" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B225" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="4"/>
     </row>
@@ -5345,7 +5352,9 @@
       <c r="A226" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B226" s="3"/>
+      <c r="B226" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C226" s="3"/>
       <c r="D226" s="4"/>
     </row>
@@ -5355,9 +5364,7 @@
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
-      <c r="D227" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D227" s="4"/>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
@@ -5383,21 +5390,21 @@
       <c r="A230" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B230" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="B231" s="3"/>
+      <c r="B231" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C231" s="3"/>
-      <c r="D231" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D231" s="4"/>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="3" t="s">
@@ -5405,18 +5412,16 @@
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
       <c r="D233" s="4"/>
     </row>
     <row r="234" spans="1:4">
@@ -5426,14 +5431,18 @@
       <c r="B234" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C234" s="3"/>
+      <c r="C234" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D234" s="4"/>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B235" s="3"/>
+      <c r="B235" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C235" s="3"/>
       <c r="D235" s="4"/>
     </row>
@@ -5443,32 +5452,29 @@
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D236" s="4"/>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B237" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="1:5">
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B238" s="3"/>
-      <c r="C238" s="3"/>
+      <c r="B238" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D238" s="4"/>
-      <c r="E238" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
@@ -5490,45 +5496,43 @@
       <c r="A241" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B241" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
       <c r="D241" s="4"/>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="3"/>
-      <c r="C242" s="3"/>
-      <c r="D242" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D242" s="4"/>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B243" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C243" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D243" s="4"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B244" s="3"/>
-      <c r="C244" s="3"/>
-      <c r="D244" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D244" s="4"/>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="3" t="s">
@@ -5536,7 +5540,9 @@
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="3" t="s">
@@ -5552,9 +5558,7 @@
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="3" t="s">
@@ -5562,26 +5566,28 @@
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B249" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C249" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
       <c r="D249" s="4"/>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B250" s="3"/>
-      <c r="C250" s="3"/>
+      <c r="B250" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D250" s="4"/>
     </row>
     <row r="251" spans="1:4">
@@ -5638,9 +5644,7 @@
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D257" s="4"/>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
@@ -5648,7 +5652,9 @@
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="3" t="s">
@@ -5680,40 +5686,36 @@
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D262" s="4"/>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B263" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C263" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="D263" s="4"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B264" s="3"/>
-      <c r="C264" s="3"/>
+      <c r="B264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="D264" s="4"/>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B265" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C265" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
       <c r="D265" s="4"/>
     </row>
     <row r="266" spans="1:4">
@@ -5721,24 +5723,22 @@
         <v>290</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D266" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D266" s="4"/>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D267" s="4" t="s">
         <v>6</v>
@@ -5748,40 +5748,42 @@
       <c r="A268" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B268" s="3"/>
-      <c r="C268" s="3"/>
-      <c r="D268" s="4"/>
+      <c r="B268" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B269" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C269" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
       <c r="D269" s="4"/>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B270" s="3"/>
-      <c r="C270" s="3"/>
+      <c r="B270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D270" s="4"/>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B271" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
       <c r="D271" s="4"/>
     </row>
     <row r="272" spans="1:4">
@@ -5789,22 +5791,22 @@
         <v>296</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>297</v>
+        <v>48</v>
       </c>
       <c r="D272" s="4"/>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C273" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D273" s="4"/>
     </row>
@@ -5813,24 +5815,22 @@
         <v>299</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D274" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D274" s="4"/>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>6</v>
@@ -5841,12 +5841,14 @@
         <v>301</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D276" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="3" t="s">
@@ -5856,11 +5858,9 @@
         <v>20</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D277" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D277" s="4"/>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="3" t="s">
@@ -5870,9 +5870,11 @@
         <v>20</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D278" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="3" t="s">
@@ -5882,19 +5884,23 @@
         <v>20</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D279" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D279" s="4"/>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B280" s="3"/>
-      <c r="C280" s="3"/>
-      <c r="D280" s="4"/>
+      <c r="B280" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
@@ -5924,12 +5930,8 @@
       <c r="A284" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B284" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
       <c r="D284" s="4"/>
     </row>
     <row r="285" spans="1:4">
@@ -5940,19 +5942,23 @@
         <v>20</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D285" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D285" s="4"/>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B286" s="3"/>
-      <c r="C286" s="3"/>
-      <c r="D286" s="4"/>
+      <c r="B286" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="3" t="s">
@@ -5990,32 +5996,28 @@
       <c r="A291" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B291" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
       <c r="D291" s="4"/>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B292" s="3"/>
-      <c r="C292" s="3"/>
+      <c r="B292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D292" s="4"/>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B293" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C293" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
       <c r="D293" s="4"/>
     </row>
     <row r="294" spans="1:4">
@@ -6023,24 +6025,22 @@
         <v>319</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D294" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D294" s="4"/>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="3" t="s">
         <v>320</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>6</v>
@@ -6050,9 +6050,15 @@
       <c r="A296" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B296" s="3"/>
-      <c r="C296" s="3"/>
-      <c r="D296" s="4"/>
+      <c r="B296" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="3" t="s">
@@ -6074,9 +6080,7 @@
       <c r="A299" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B299" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B299" s="3"/>
       <c r="C299" s="3"/>
       <c r="D299" s="4"/>
     </row>
@@ -6084,7 +6088,9 @@
       <c r="A300" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B300" s="3"/>
+      <c r="B300" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C300" s="3"/>
       <c r="D300" s="4"/>
     </row>
@@ -6092,9 +6098,7 @@
       <c r="A301" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B301" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B301" s="3"/>
       <c r="C301" s="3"/>
       <c r="D301" s="4"/>
     </row>
@@ -6102,7 +6106,9 @@
       <c r="A302" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B302" s="3"/>
+      <c r="B302" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C302" s="3"/>
       <c r="D302" s="4"/>
     </row>
@@ -6112,9 +6118,7 @@
       </c>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D303" s="4"/>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="3" t="s">
@@ -6122,29 +6126,29 @@
       </c>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C305" s="3" t="s">
-        <v>61</v>
-      </c>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
       <c r="D305" s="4"/>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B306" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B306" s="3"/>
-      <c r="C306" s="3"/>
-      <c r="D306" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C306" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D306" s="4"/>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="3" t="s">
@@ -6152,7 +6156,9 @@
       </c>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="4"/>
+      <c r="D307" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="3" t="s">
@@ -6166,12 +6172,8 @@
       <c r="A309" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B309" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C309" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
       <c r="D309" s="4"/>
     </row>
     <row r="310" spans="1:4">
@@ -6179,22 +6181,26 @@
         <v>336</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D310" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D310" s="4"/>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B311" s="3"/>
-      <c r="C311" s="3"/>
-      <c r="D311" s="4"/>
+      <c r="B311" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D311" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="3" t="s">
@@ -6250,28 +6256,24 @@
       </c>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="4" t="s">
-        <v>345</v>
-      </c>
+      <c r="D318" s="4"/>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="4"/>
+      <c r="D319" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B320" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C320" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
       <c r="D320" s="4"/>
     </row>
     <row r="321" spans="1:4">
@@ -6279,16 +6281,20 @@
         <v>348</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C321" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D321" s="4"/>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B322" s="3"/>
+      <c r="B322" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C322" s="3"/>
       <c r="D322" s="4"/>
     </row>
@@ -6320,9 +6326,7 @@
       <c r="A326" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B326" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B326" s="3"/>
       <c r="C326" s="3"/>
       <c r="D326" s="4"/>
     </row>
@@ -6340,7 +6344,9 @@
       <c r="A328" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B328" s="3"/>
+      <c r="B328" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C328" s="3"/>
       <c r="D328" s="4"/>
     </row>
@@ -6348,12 +6354,8 @@
       <c r="A329" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B329" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C329" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
       <c r="D329" s="4"/>
     </row>
     <row r="330" spans="1:4">
@@ -6364,27 +6366,31 @@
         <v>20</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D330" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D330" s="4"/>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="3" t="s">
         <v>358</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C331" s="3"/>
-      <c r="D331" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D331" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B332" s="3"/>
+      <c r="B332" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C332" s="3"/>
       <c r="D332" s="4"/>
     </row>
@@ -6394,21 +6400,17 @@
       </c>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D333" s="4"/>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B334" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C334" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D334" s="4"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+      <c r="D334" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="3" t="s">
@@ -6417,14 +6419,18 @@
       <c r="B335" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C335" s="3"/>
+      <c r="C335" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D335" s="4"/>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B336" s="3"/>
+      <c r="B336" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C336" s="3"/>
       <c r="D336" s="4"/>
     </row>
@@ -6432,9 +6438,7 @@
       <c r="A337" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B337" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B337" s="3"/>
       <c r="C337" s="3"/>
       <c r="D337" s="4"/>
     </row>
@@ -6446,28 +6450,26 @@
         <v>20</v>
       </c>
       <c r="C338" s="3"/>
-      <c r="D338" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D338" s="4"/>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B339" s="3"/>
+      <c r="B339" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C339" s="3"/>
-      <c r="D339" s="4"/>
+      <c r="D339" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B340" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
       <c r="D340" s="4"/>
     </row>
     <row r="341" spans="1:4">
@@ -6475,9 +6477,11 @@
         <v>368</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C341" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D341" s="4"/>
     </row>
     <row r="342" spans="1:4">
@@ -6485,11 +6489,9 @@
         <v>369</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>156</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C342" s="3"/>
       <c r="D342" s="4"/>
     </row>
     <row r="343" spans="1:4">
@@ -6497,24 +6499,22 @@
         <v>370</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D343" s="4"/>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="3" t="s">
         <v>371</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>6</v>
@@ -6525,32 +6525,36 @@
         <v>372</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C345" s="3"/>
-      <c r="D345" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D345" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="3" t="s">
         <v>373</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C346" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C346" s="3"/>
       <c r="D346" s="4"/>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="B347" s="3"/>
-      <c r="C347" s="3"/>
-      <c r="D347" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B347" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D347" s="4"/>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="3" t="s">
@@ -6558,18 +6562,16 @@
       </c>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="4"/>
+      <c r="D348" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B349" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
       <c r="D349" s="4"/>
     </row>
     <row r="350" spans="1:4">
@@ -6577,37 +6579,39 @@
         <v>377</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C350" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="D350" s="4"/>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B351" s="3"/>
+      <c r="B351" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C351" s="3"/>
-      <c r="D351" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D351" s="4"/>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B352" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="4"/>
+      <c r="D352" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="3" t="s">
         <v>380</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="4"/>
@@ -6619,26 +6623,26 @@
       <c r="B354" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C354" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="C354" s="3"/>
       <c r="D354" s="4"/>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C355" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B355" s="3"/>
-      <c r="C355" s="3"/>
       <c r="D355" s="4"/>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B356" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B356" s="3"/>
       <c r="C356" s="3"/>
       <c r="D356" s="4"/>
     </row>
@@ -6647,48 +6651,48 @@
         <v>385</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C357" s="3"/>
       <c r="D357" s="4"/>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B358" s="3"/>
-      <c r="C358" s="3"/>
+      <c r="B358" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D358" s="4"/>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B359" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C359" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
       <c r="D359" s="4"/>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="B360" s="3"/>
-      <c r="C360" s="3"/>
+      <c r="B360" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D360" s="4"/>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B361" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="4"/>
     </row>
@@ -6696,11 +6700,11 @@
       <c r="A362" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B362" s="3"/>
+      <c r="B362" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C362" s="3"/>
-      <c r="D362" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D362" s="4"/>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="3" t="s">
@@ -6708,15 +6712,15 @@
       </c>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="4"/>
+      <c r="D363" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="B364" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B364" s="3"/>
       <c r="C364" s="3"/>
       <c r="D364" s="4"/>
     </row>
@@ -6725,11 +6729,9 @@
         <v>393</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C365" s="3"/>
       <c r="D365" s="4"/>
     </row>
     <row r="366" spans="1:4">
@@ -6737,24 +6739,22 @@
         <v>394</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D366" s="4"/>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="3" t="s">
         <v>395</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D367" s="4" t="s">
         <v>6</v>
@@ -6765,34 +6765,40 @@
         <v>396</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D368" s="4"/>
+        <v>63</v>
+      </c>
+      <c r="D368" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="3" t="s">
         <v>397</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D369" s="4"/>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="B370" s="3"/>
-      <c r="C370" s="3"/>
-      <c r="D370" s="4"/>
+      <c r="B370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D370" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="3" t="s">
@@ -6800,9 +6806,7 @@
       </c>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D371" s="4"/>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="3" t="s">
@@ -6810,7 +6814,9 @@
       </c>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="4"/>
+      <c r="D372" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="3" t="s">
@@ -6818,25 +6824,25 @@
       </c>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D373" s="4"/>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B374" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B374" s="3"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="4"/>
+      <c r="D374" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B375" s="3"/>
+      <c r="B375" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C375" s="3"/>
       <c r="D375" s="4"/>
     </row>
@@ -6846,45 +6852,39 @@
       </c>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
-      <c r="D376" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D376" s="4"/>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B377" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C377" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D377" s="4"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+      <c r="D377" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C378" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B378" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D378" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D378" s="4"/>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="3" t="s">
         <v>408</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D379" s="4" t="s">
         <v>6</v>
@@ -6895,10 +6895,10 @@
         <v>409</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>6</v>
@@ -6908,9 +6908,15 @@
       <c r="A381" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B381" s="3"/>
-      <c r="C381" s="3"/>
-      <c r="D381" s="4"/>
+      <c r="B381" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D381" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="3" t="s">
@@ -6918,9 +6924,7 @@
       </c>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
-      <c r="D382" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D382" s="4"/>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="3" t="s">
@@ -6928,7 +6932,9 @@
       </c>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="4"/>
+      <c r="D383" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="3" t="s">
@@ -6936,9 +6942,7 @@
       </c>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D384" s="4"/>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="3" t="s">
@@ -6946,41 +6950,39 @@
       </c>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
-      <c r="D385" s="4"/>
+      <c r="D385" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B386" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="B386" s="3"/>
       <c r="C386" s="3"/>
-      <c r="D386" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D386" s="4"/>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="3" t="s">
         <v>416</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C387" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D387" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="C387" s="3"/>
+      <c r="D387" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="3" t="s">
         <v>417</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D388" s="4"/>
     </row>
@@ -6988,8 +6990,12 @@
       <c r="A389" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B389" s="3"/>
-      <c r="C389" s="3"/>
+      <c r="B389" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D389" s="4"/>
     </row>
     <row r="390" spans="1:4">
@@ -6998,40 +7004,36 @@
       </c>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
-      <c r="D390" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D390" s="4"/>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B391" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D391" s="4"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+      <c r="D391" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
+      <c r="B392" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="D392" s="4"/>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B393" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
       <c r="D393" s="4"/>
     </row>
     <row r="394" spans="1:4">
@@ -7039,24 +7041,22 @@
         <v>423</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D394" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D394" s="4"/>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="3" t="s">
         <v>424</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D395" s="4" t="s">
         <v>6</v>
@@ -7067,10 +7067,10 @@
         <v>425</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>6</v>
@@ -7080,9 +7080,15 @@
       <c r="A397" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B397" s="3"/>
-      <c r="C397" s="3"/>
-      <c r="D397" s="4"/>
+      <c r="B397" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D397" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="3" t="s">
@@ -7098,29 +7104,27 @@
       </c>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
-      <c r="D399" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D399" s="4"/>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="B400" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B400" s="3"/>
       <c r="C400" s="3"/>
-      <c r="D400" s="4"/>
+      <c r="D400" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B401" s="3"/>
+      <c r="B401" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C401" s="3"/>
-      <c r="D401" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D401" s="4"/>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="3" t="s">
@@ -7128,45 +7132,47 @@
       </c>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
-      <c r="D402" s="4"/>
+      <c r="D402" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B403" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C403" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
       <c r="D403" s="4"/>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B404" s="3"/>
-      <c r="C404" s="3"/>
-      <c r="D404" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B404" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D404" s="4"/>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B405" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B405" s="3"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="4"/>
+      <c r="D405" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B406" s="3"/>
+      <c r="B406" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C406" s="3"/>
       <c r="D406" s="4"/>
     </row>
@@ -7182,12 +7188,8 @@
       <c r="A408" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B408" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C408" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
       <c r="D408" s="4"/>
     </row>
     <row r="409" spans="1:4">
@@ -7195,24 +7197,22 @@
         <v>438</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D409" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D409" s="4"/>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="3" t="s">
         <v>439</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>6</v>
@@ -7223,36 +7223,36 @@
         <v>440</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D411" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="D411" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="3" t="s">
         <v>441</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D412" s="4"/>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>6</v>
@@ -7262,28 +7262,34 @@
       <c r="A414" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B414" s="3"/>
-      <c r="C414" s="3"/>
-      <c r="D414" s="4"/>
+      <c r="B414" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D414" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B415" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
       <c r="D415" s="4"/>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B416" s="3"/>
-      <c r="C416" s="3"/>
+      <c r="B416" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D416" s="4"/>
     </row>
     <row r="417" spans="1:4">
@@ -7298,20 +7304,20 @@
       <c r="A418" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B418" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
       <c r="D418" s="4"/>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B419" s="3"/>
-      <c r="C419" s="3"/>
+      <c r="B419" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>268</v>
+      </c>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="1:4">
@@ -7334,12 +7340,8 @@
       <c r="A422" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B422" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C422" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
       <c r="D422" s="4"/>
     </row>
     <row r="423" spans="1:4">
@@ -7349,41 +7351,41 @@
       <c r="B423" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C423" s="3"/>
-      <c r="D423" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="C423" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D423" s="4"/>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="3" t="s">
         <v>453</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C424" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D424" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="C424" s="3"/>
+      <c r="D424" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B425" s="3"/>
-      <c r="C425" s="3"/>
+      <c r="B425" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D425" s="4"/>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B426" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C426" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
       <c r="D426" s="4"/>
     </row>
     <row r="427" spans="1:4">
@@ -7394,16 +7396,20 @@
         <v>14</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>457</v>
+        <v>38</v>
       </c>
       <c r="D427" s="4"/>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B428" s="3"/>
-      <c r="C428" s="3"/>
       <c r="D428" s="4"/>
     </row>
     <row r="429" spans="1:4">
@@ -7426,9 +7432,7 @@
       <c r="A431" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B431" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B431" s="3"/>
       <c r="C431" s="3"/>
       <c r="D431" s="4"/>
     </row>
@@ -7436,11 +7440,11 @@
       <c r="A432" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="B432" s="3"/>
+      <c r="B432" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C432" s="3"/>
-      <c r="D432" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D432" s="4"/>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="3" t="s">
@@ -7448,7 +7452,9 @@
       </c>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
-      <c r="D433" s="4"/>
+      <c r="D433" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="3" t="s">
@@ -7486,20 +7492,20 @@
       <c r="A438" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B438" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C438" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
       <c r="D438" s="4"/>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B439" s="3"/>
-      <c r="C439" s="3"/>
+      <c r="B439" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D439" s="4"/>
     </row>
     <row r="440" spans="1:4">
@@ -7538,9 +7544,7 @@
       <c r="A444" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B444" s="3"/>
       <c r="C444" s="3"/>
       <c r="D444" s="4"/>
     </row>
@@ -7548,7 +7552,9 @@
       <c r="A445" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B445" s="3"/>
+      <c r="B445" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C445" s="3"/>
       <c r="D445" s="4"/>
     </row>
@@ -7556,9 +7562,7 @@
       <c r="A446" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B446" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B446" s="3"/>
       <c r="C446" s="3"/>
       <c r="D446" s="4"/>
     </row>
@@ -7566,11 +7570,11 @@
       <c r="A447" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B447" s="3"/>
+      <c r="B447" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C447" s="3"/>
-      <c r="D447" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D447" s="4"/>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="3" t="s">
@@ -7578,7 +7582,9 @@
       </c>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
-      <c r="D448" s="4"/>
+      <c r="D448" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="3" t="s">
@@ -7616,9 +7622,7 @@
       <c r="A453" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B453" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B453" s="3"/>
       <c r="C453" s="3"/>
       <c r="D453" s="4"/>
     </row>
@@ -7626,11 +7630,11 @@
       <c r="A454" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B454" s="3"/>
+      <c r="B454" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C454" s="3"/>
-      <c r="D454" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D454" s="4"/>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="3" t="s">
@@ -7656,17 +7660,19 @@
       <c r="A457" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B457" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B457" s="3"/>
       <c r="C457" s="3"/>
-      <c r="D457" s="4"/>
+      <c r="D457" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B458" s="3"/>
+      <c r="B458" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C458" s="3"/>
       <c r="D458" s="4"/>
     </row>
@@ -7740,28 +7746,28 @@
       </c>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
-      <c r="D467" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D467" s="4"/>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B468" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D468" s="4"/>
+      <c r="B468" s="3"/>
+      <c r="C468" s="3"/>
+      <c r="D468" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B469" s="3"/>
-      <c r="C469" s="3"/>
+      <c r="B469" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D469" s="4"/>
     </row>
     <row r="470" spans="1:4">
@@ -7802,9 +7808,7 @@
       </c>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
-      <c r="D474" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D474" s="4"/>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="3" t="s">
@@ -7812,7 +7816,9 @@
       </c>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
-      <c r="D475" s="4"/>
+      <c r="D475" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="3" t="s">
@@ -7826,23 +7832,21 @@
       <c r="A477" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B477" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C477" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="B477" s="3"/>
+      <c r="C477" s="3"/>
       <c r="D477" s="4"/>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B478" s="3"/>
-      <c r="C478" s="3"/>
-      <c r="D478" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B478" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D478" s="4"/>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3" t="s">
@@ -7858,35 +7862,37 @@
       <c r="A480" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B480" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C480" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D480" s="4"/>
+      <c r="B480" s="3"/>
+      <c r="C480" s="3"/>
+      <c r="D480" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C481" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B481" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C481" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="D481" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D481" s="4"/>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B482" s="3"/>
-      <c r="C482" s="3"/>
-      <c r="D482" s="4"/>
+      <c r="B482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="D482" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="3" t="s">
@@ -7908,12 +7914,8 @@
       <c r="A485" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B485" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C485" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B485" s="3"/>
+      <c r="C485" s="3"/>
       <c r="D485" s="4"/>
     </row>
     <row r="486" spans="1:4">
@@ -7921,10 +7923,10 @@
         <v>517</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>382</v>
+        <v>48</v>
       </c>
       <c r="D486" s="4"/>
     </row>
@@ -7932,20 +7934,20 @@
       <c r="A487" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B487" s="3"/>
-      <c r="C487" s="3"/>
+      <c r="B487" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="D487" s="4"/>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B488" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C488" s="3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B488" s="3"/>
+      <c r="C488" s="3"/>
       <c r="D488" s="4"/>
     </row>
     <row r="489" spans="1:4">
@@ -7953,24 +7955,22 @@
         <v>520</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D489" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D489" s="4"/>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="3" t="s">
         <v>521</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D490" s="4" t="s">
         <v>6</v>
@@ -7981,28 +7981,34 @@
         <v>522</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D491" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="D491" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="3" t="s">
         <v>523</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C492" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D492" s="4"/>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B493" s="3"/>
+      <c r="B493" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C493" s="3"/>
       <c r="D493" s="4"/>
     </row>
@@ -8010,23 +8016,21 @@
       <c r="A494" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B494" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>267</v>
-      </c>
+      <c r="B494" s="3"/>
+      <c r="C494" s="3"/>
       <c r="D494" s="4"/>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B495" s="3"/>
-      <c r="C495" s="3"/>
-      <c r="D495" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B495" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D495" s="4"/>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="3" t="s">
@@ -8034,7 +8038,9 @@
       </c>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
-      <c r="D496" s="4"/>
+      <c r="D496" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="3" t="s">
@@ -8066,9 +8072,7 @@
       </c>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
-      <c r="D500" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D500" s="4"/>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3" t="s">
@@ -8076,7 +8080,9 @@
       </c>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
-      <c r="D501" s="4"/>
+      <c r="D501" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="3" t="s">
@@ -8098,12 +8104,8 @@
       <c r="A504" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B504" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C504" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B504" s="3"/>
+      <c r="C504" s="3"/>
       <c r="D504" s="4"/>
     </row>
     <row r="505" spans="1:4">
@@ -8111,24 +8113,22 @@
         <v>536</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D505" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D505" s="4"/>
     </row>
     <row r="506" spans="1:4">
       <c r="A506" s="3" t="s">
         <v>537</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D506" s="4" t="s">
         <v>6</v>
@@ -8139,10 +8139,10 @@
         <v>538</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D507" s="4" t="s">
         <v>6</v>
@@ -8153,10 +8153,10 @@
         <v>539</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D508" s="4" t="s">
         <v>6</v>
@@ -8167,10 +8167,10 @@
         <v>540</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D509" s="4" t="s">
         <v>6</v>
@@ -8180,9 +8180,15 @@
       <c r="A510" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B510" s="3"/>
-      <c r="C510" s="3"/>
-      <c r="D510" s="4"/>
+      <c r="B510" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D510" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="511" spans="1:4">
       <c r="A511" s="3" t="s">
@@ -8204,12 +8210,8 @@
       <c r="A513" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B513" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C513" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B513" s="3"/>
+      <c r="C513" s="3"/>
       <c r="D513" s="4"/>
     </row>
     <row r="514" spans="1:4">
@@ -8217,30 +8219,32 @@
         <v>545</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D514" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D514" s="4"/>
     </row>
     <row r="515" spans="1:4">
       <c r="A515" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B515" s="3"/>
-      <c r="C515" s="3"/>
-      <c r="D515" s="4"/>
+      <c r="B515" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C515" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D515" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="516" spans="1:4">
       <c r="A516" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B516" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B516" s="3"/>
       <c r="C516" s="3"/>
       <c r="D516" s="4"/>
     </row>
@@ -8248,11 +8252,11 @@
       <c r="A517" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B517" s="3"/>
+      <c r="B517" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C517" s="3"/>
-      <c r="D517" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D517" s="4"/>
     </row>
     <row r="518" spans="1:4">
       <c r="A518" s="3" t="s">
@@ -8280,15 +8284,15 @@
       </c>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
-      <c r="D520" s="4"/>
+      <c r="D520" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="521" spans="1:4">
       <c r="A521" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B521" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B521" s="3"/>
       <c r="C521" s="3"/>
       <c r="D521" s="4"/>
     </row>
@@ -8296,7 +8300,9 @@
       <c r="A522" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B522" s="3"/>
+      <c r="B522" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C522" s="3"/>
       <c r="D522" s="4"/>
     </row>
@@ -8304,9 +8310,7 @@
       <c r="A523" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B523" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B523" s="3"/>
       <c r="C523" s="3"/>
       <c r="D523" s="4"/>
     </row>
@@ -8314,7 +8318,9 @@
       <c r="A524" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B524" s="3"/>
+      <c r="B524" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C524" s="3"/>
       <c r="D524" s="4"/>
     </row>
@@ -8324,45 +8330,39 @@
       </c>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
-      <c r="D525" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D525" s="4"/>
     </row>
     <row r="526" spans="1:4">
       <c r="A526" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B526" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D526" s="4"/>
+      <c r="B526" s="3"/>
+      <c r="C526" s="3"/>
+      <c r="D526" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="527" spans="1:4">
       <c r="A527" s="3" t="s">
         <v>558</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D527" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D527" s="4"/>
     </row>
     <row r="528" spans="1:4">
       <c r="A528" s="3" t="s">
         <v>559</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D528" s="4" t="s">
         <v>6</v>
@@ -8373,10 +8373,10 @@
         <v>560</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D529" s="4" t="s">
         <v>6</v>
@@ -8386,9 +8386,15 @@
       <c r="A530" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B530" s="3"/>
-      <c r="C530" s="3"/>
-      <c r="D530" s="4"/>
+      <c r="B530" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D530" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="531" spans="1:4">
       <c r="A531" s="3" t="s">
@@ -8410,12 +8416,8 @@
       <c r="A533" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B533" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C533" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="B533" s="3"/>
+      <c r="C533" s="3"/>
       <c r="D533" s="4"/>
     </row>
     <row r="534" spans="1:4">
@@ -8423,9 +8425,11 @@
         <v>565</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C534" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="D534" s="4"/>
     </row>
     <row r="535" spans="1:4">
@@ -8442,7 +8446,9 @@
       <c r="A536" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B536" s="3"/>
+      <c r="B536" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C536" s="3"/>
       <c r="D536" s="4"/>
     </row>
@@ -8450,12 +8456,8 @@
       <c r="A537" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B537" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C537" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B537" s="3"/>
+      <c r="C537" s="3"/>
       <c r="D537" s="4"/>
     </row>
     <row r="538" spans="1:4">
@@ -8463,22 +8465,26 @@
         <v>569</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D538" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D538" s="4"/>
     </row>
     <row r="539" spans="1:4">
       <c r="A539" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B539" s="3"/>
-      <c r="C539" s="3"/>
-      <c r="D539" s="4"/>
+      <c r="B539" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D539" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="540" spans="1:4">
       <c r="A540" s="3" t="s">
@@ -8492,9 +8498,7 @@
       <c r="A541" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B541" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B541" s="3"/>
       <c r="C541" s="3"/>
       <c r="D541" s="4"/>
     </row>
@@ -8513,11 +8517,9 @@
         <v>574</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C543" s="3" t="s">
-        <v>111</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C543" s="3"/>
       <c r="D543" s="4"/>
     </row>
     <row r="544" spans="1:4">
@@ -8525,24 +8527,22 @@
         <v>575</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D544" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D544" s="4"/>
     </row>
     <row r="545" spans="1:4">
       <c r="A545" s="3" t="s">
         <v>576</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D545" s="4" t="s">
         <v>6</v>
@@ -8552,9 +8552,15 @@
       <c r="A546" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B546" s="3"/>
-      <c r="C546" s="3"/>
-      <c r="D546" s="4"/>
+      <c r="B546" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D546" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="547" spans="1:4">
       <c r="A547" s="3" t="s">
@@ -8568,9 +8574,7 @@
       <c r="A548" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B548" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B548" s="3"/>
       <c r="C548" s="3"/>
       <c r="D548" s="4"/>
     </row>
@@ -8578,7 +8582,9 @@
       <c r="A549" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B549" s="3"/>
+      <c r="B549" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C549" s="3"/>
       <c r="D549" s="4"/>
     </row>
@@ -8594,9 +8600,7 @@
       <c r="A551" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B551" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B551" s="3"/>
       <c r="C551" s="3"/>
       <c r="D551" s="4"/>
     </row>
@@ -8604,7 +8608,9 @@
       <c r="A552" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B552" s="3"/>
+      <c r="B552" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C552" s="3"/>
       <c r="D552" s="4"/>
     </row>
@@ -8612,9 +8618,7 @@
       <c r="A553" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B553" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B553" s="3"/>
       <c r="C553" s="3"/>
       <c r="D553" s="4"/>
     </row>
@@ -8632,7 +8636,9 @@
       <c r="A555" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B555" s="3"/>
+      <c r="B555" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C555" s="3"/>
       <c r="D555" s="4"/>
     </row>
@@ -8640,9 +8646,7 @@
       <c r="A556" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B556" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B556" s="3"/>
       <c r="C556" s="3"/>
       <c r="D556" s="4"/>
     </row>
@@ -8650,7 +8654,9 @@
       <c r="A557" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B557" s="3"/>
+      <c r="B557" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C557" s="3"/>
       <c r="D557" s="4"/>
     </row>
@@ -8658,12 +8664,8 @@
       <c r="A558" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B558" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="B558" s="3"/>
+      <c r="C558" s="3"/>
       <c r="D558" s="4"/>
     </row>
     <row r="559" spans="1:4">
@@ -8674,19 +8676,23 @@
         <v>20</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D559" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D559" s="4"/>
     </row>
     <row r="560" spans="1:4">
       <c r="A560" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B560" s="3"/>
-      <c r="C560" s="3"/>
-      <c r="D560" s="4"/>
+      <c r="B560" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D560" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="561" spans="1:4">
       <c r="A561" s="3" t="s">
@@ -8700,12 +8706,8 @@
       <c r="A562" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B562" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C562" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="B562" s="3"/>
+      <c r="C562" s="3"/>
       <c r="D562" s="4"/>
     </row>
     <row r="563" spans="1:4">
@@ -8713,10 +8715,10 @@
         <v>594</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="D563" s="4"/>
     </row>
@@ -8725,22 +8727,26 @@
         <v>595</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D564" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D564" s="4"/>
     </row>
     <row r="565" spans="1:4">
       <c r="A565" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B565" s="3"/>
-      <c r="C565" s="3"/>
-      <c r="D565" s="4"/>
+      <c r="B565" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D565" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="566" spans="1:4">
       <c r="A566" s="3" t="s">
@@ -8772,9 +8778,7 @@
       </c>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
-      <c r="D569" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D569" s="4"/>
     </row>
     <row r="570" spans="1:4">
       <c r="A570" s="3" t="s">
@@ -8782,7 +8786,9 @@
       </c>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
-      <c r="D570" s="4"/>
+      <c r="D570" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="571" spans="1:4">
       <c r="A571" s="3" t="s">
@@ -8790,9 +8796,7 @@
       </c>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
-      <c r="D571" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D571" s="4"/>
     </row>
     <row r="572" spans="1:4">
       <c r="A572" s="3" t="s">
@@ -8810,7 +8814,9 @@
       </c>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
-      <c r="D573" s="4"/>
+      <c r="D573" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="574" spans="1:4">
       <c r="A574" s="3" t="s">
@@ -8824,9 +8830,7 @@
       <c r="A575" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="B575" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B575" s="3"/>
       <c r="C575" s="3"/>
       <c r="D575" s="4"/>
     </row>
@@ -8834,11 +8838,11 @@
       <c r="A576" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B576" s="3"/>
+      <c r="B576" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C576" s="3"/>
-      <c r="D576" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D576" s="4"/>
     </row>
     <row r="577" spans="1:4">
       <c r="A577" s="3" t="s">
@@ -8846,26 +8850,28 @@
       </c>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
-      <c r="D577" s="4"/>
+      <c r="D577" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="578" spans="1:4">
       <c r="A578" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B578" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C578" s="3" t="s">
-        <v>137</v>
-      </c>
+      <c r="B578" s="3"/>
+      <c r="C578" s="3"/>
       <c r="D578" s="4"/>
     </row>
     <row r="579" spans="1:4">
       <c r="A579" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B579" s="3"/>
-      <c r="C579" s="3"/>
+      <c r="B579" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="D579" s="4"/>
     </row>
     <row r="580" spans="1:4">
@@ -8904,12 +8910,8 @@
       <c r="A584" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B584" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C584" s="3" t="s">
-        <v>91</v>
-      </c>
+      <c r="B584" s="3"/>
+      <c r="C584" s="3"/>
       <c r="D584" s="4"/>
     </row>
     <row r="585" spans="1:4">
@@ -8917,24 +8919,22 @@
         <v>616</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D585" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D585" s="4"/>
     </row>
     <row r="586" spans="1:4">
       <c r="A586" s="3" t="s">
         <v>617</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D586" s="4" t="s">
         <v>6</v>
@@ -8945,10 +8945,10 @@
         <v>618</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D587" s="4" t="s">
         <v>6</v>
@@ -8958,17 +8958,21 @@
       <c r="A588" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B588" s="3"/>
-      <c r="C588" s="3"/>
-      <c r="D588" s="4"/>
+      <c r="B588" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D588" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="589" spans="1:4">
       <c r="A589" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B589" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B589" s="3"/>
       <c r="C589" s="3"/>
       <c r="D589" s="4"/>
     </row>
@@ -8986,7 +8990,9 @@
       <c r="A591" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B591" s="3"/>
+      <c r="B591" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C591" s="3"/>
       <c r="D591" s="4"/>
     </row>
@@ -8994,12 +9000,8 @@
       <c r="A592" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B592" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C592" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="B592" s="3"/>
+      <c r="C592" s="3"/>
       <c r="D592" s="4"/>
     </row>
     <row r="593" spans="1:4">
@@ -9007,33 +9009,33 @@
         <v>624</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D593" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D593" s="4"/>
     </row>
     <row r="594" spans="1:4">
       <c r="A594" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B594" s="3"/>
-      <c r="C594" s="3"/>
-      <c r="D594" s="4"/>
+      <c r="B594" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D594" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="595" spans="1:4">
       <c r="A595" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="B595" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C595" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="B595" s="3"/>
+      <c r="C595" s="3"/>
       <c r="D595" s="4"/>
     </row>
     <row r="596" spans="1:4">
@@ -9041,9 +9043,11 @@
         <v>627</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C596" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="D596" s="4"/>
     </row>
     <row r="597" spans="1:4">
@@ -9051,28 +9055,28 @@
         <v>628</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C597" s="3" t="s">
-        <v>91</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C597" s="3"/>
       <c r="D597" s="4"/>
     </row>
     <row r="598" spans="1:4">
       <c r="A598" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B598" s="3"/>
-      <c r="C598" s="3"/>
+      <c r="B598" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D598" s="4"/>
     </row>
     <row r="599" spans="1:4">
       <c r="A599" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B599" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B599" s="3"/>
       <c r="C599" s="3"/>
       <c r="D599" s="4"/>
     </row>
@@ -9090,7 +9094,9 @@
       <c r="A601" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B601" s="3"/>
+      <c r="B601" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C601" s="3"/>
       <c r="D601" s="4"/>
     </row>
@@ -9106,9 +9112,7 @@
       <c r="A603" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="B603" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B603" s="3"/>
       <c r="C603" s="3"/>
       <c r="D603" s="4"/>
     </row>
@@ -9116,7 +9120,9 @@
       <c r="A604" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B604" s="3"/>
+      <c r="B604" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C604" s="3"/>
       <c r="D604" s="4"/>
     </row>
@@ -9126,31 +9132,27 @@
       </c>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
-      <c r="D605" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D605" s="4"/>
     </row>
     <row r="606" spans="1:4">
       <c r="A606" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B606" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C606" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D606" s="4"/>
+      <c r="B606" s="3"/>
+      <c r="C606" s="3"/>
+      <c r="D606" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="607" spans="1:4">
       <c r="A607" s="3" t="s">
         <v>638</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>511</v>
+        <v>56</v>
       </c>
       <c r="D607" s="4"/>
     </row>
@@ -9159,10 +9161,10 @@
         <v>639</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>91</v>
+        <v>512</v>
       </c>
       <c r="D608" s="4"/>
     </row>
@@ -9170,17 +9172,19 @@
       <c r="A609" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B609" s="3"/>
-      <c r="C609" s="3"/>
+      <c r="B609" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="D609" s="4"/>
     </row>
     <row r="610" spans="1:4">
       <c r="A610" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B610" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B610" s="3"/>
       <c r="C610" s="3"/>
       <c r="D610" s="4"/>
     </row>
@@ -9188,11 +9192,11 @@
       <c r="A611" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B611" s="3"/>
+      <c r="B611" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C611" s="3"/>
-      <c r="D611" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D611" s="4"/>
     </row>
     <row r="612" spans="1:4">
       <c r="A612" s="3" t="s">
@@ -9208,17 +9212,19 @@
       <c r="A613" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="B613" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B613" s="3"/>
       <c r="C613" s="3"/>
-      <c r="D613" s="4"/>
+      <c r="D613" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="614" spans="1:4">
       <c r="A614" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B614" s="3"/>
+      <c r="B614" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C614" s="3"/>
       <c r="D614" s="4"/>
     </row>
@@ -9242,12 +9248,8 @@
       <c r="A617" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B617" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C617" s="3" t="s">
-        <v>406</v>
-      </c>
+      <c r="B617" s="3"/>
+      <c r="C617" s="3"/>
       <c r="D617" s="4"/>
     </row>
     <row r="618" spans="1:4">
@@ -9255,24 +9257,22 @@
         <v>649</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D618" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="D618" s="4"/>
     </row>
     <row r="619" spans="1:4">
       <c r="A619" s="3" t="s">
         <v>650</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D619" s="4" t="s">
         <v>6</v>
@@ -9283,10 +9283,10 @@
         <v>651</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D620" s="4" t="s">
         <v>6</v>
@@ -9296,9 +9296,15 @@
       <c r="A621" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B621" s="3"/>
-      <c r="C621" s="3"/>
-      <c r="D621" s="4"/>
+      <c r="B621" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C621" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D621" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="622" spans="1:4">
       <c r="A622" s="3" t="s">
@@ -9336,9 +9342,7 @@
       <c r="A626" s="3" t="s">
         <v>657</v>
       </c>
-      <c r="B626" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B626" s="3"/>
       <c r="C626" s="3"/>
       <c r="D626" s="4"/>
     </row>
@@ -9349,20 +9353,20 @@
       <c r="B627" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C627" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="C627" s="3"/>
       <c r="D627" s="4"/>
     </row>
     <row r="628" spans="1:4">
       <c r="A628" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="B628" s="3"/>
-      <c r="C628" s="3"/>
-      <c r="D628" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B628" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C628" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D628" s="4"/>
     </row>
     <row r="629" spans="1:4">
       <c r="A629" s="3" t="s">
@@ -9380,7 +9384,9 @@
       </c>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
-      <c r="D630" s="4"/>
+      <c r="D630" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="631" spans="1:4">
       <c r="A631" s="3" t="s">
@@ -9396,31 +9402,29 @@
       </c>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
-      <c r="D632" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D632" s="4"/>
     </row>
     <row r="633" spans="1:4">
       <c r="A633" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="B633" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C633" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D633" s="4"/>
+      <c r="B633" s="3"/>
+      <c r="C633" s="3"/>
+      <c r="D633" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="634" spans="1:4">
       <c r="A634" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B634" s="3"/>
-      <c r="C634" s="3"/>
-      <c r="D634" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="B634" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D634" s="4"/>
     </row>
     <row r="635" spans="1:4">
       <c r="A635" s="3" t="s">
@@ -9428,15 +9432,15 @@
       </c>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
-      <c r="D635" s="4"/>
+      <c r="D635" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="636" spans="1:4">
       <c r="A636" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B636" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B636" s="3"/>
       <c r="C636" s="3"/>
       <c r="D636" s="4"/>
     </row>
@@ -9444,11 +9448,11 @@
       <c r="A637" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B637" s="3"/>
+      <c r="B637" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C637" s="3"/>
-      <c r="D637" s="4" t="s">
-        <v>6</v>
-      </c>
+      <c r="D637" s="4"/>
     </row>
     <row r="638" spans="1:4">
       <c r="A638" s="3" t="s">
@@ -9456,7 +9460,9 @@
       </c>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
-      <c r="D638" s="4"/>
+      <c r="D638" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="639" spans="1:4">
       <c r="A639" s="3" t="s">
@@ -9478,9 +9484,7 @@
       <c r="A641" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="B641" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B641" s="3"/>
       <c r="C641" s="3"/>
       <c r="D641" s="4"/>
     </row>
@@ -9488,7 +9492,9 @@
       <c r="A642" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B642" s="3"/>
+      <c r="B642" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C642" s="3"/>
       <c r="D642" s="4"/>
     </row>
@@ -9504,12 +9510,8 @@
       <c r="A644" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B644" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C644" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="B644" s="3"/>
+      <c r="C644" s="3"/>
       <c r="D644" s="4"/>
     </row>
     <row r="645" spans="1:4">
@@ -9517,24 +9519,22 @@
         <v>676</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C645" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D645" s="4" t="s">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D645" s="4"/>
     </row>
     <row r="646" spans="1:4">
       <c r="A646" s="3" t="s">
         <v>677</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C646" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D646" s="4" t="s">
         <v>6</v>
@@ -9544,12 +9544,26 @@
       <c r="A647" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="B647" s="3"/>
-      <c r="C647" s="3"/>
-      <c r="D647" s="4"/>
+      <c r="B647" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C647" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D647" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4">
+      <c r="A648" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="B648" s="3"/>
+      <c r="C648" s="3"/>
+      <c r="D648" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D647">
+  <autoFilter ref="A1:D648">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
